--- a/VPB/LC.xlsx
+++ b/VPB/LC.xlsx
@@ -1719,243 +1719,243 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9726</t>
+          <t>9725669</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>2754311</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2593</t>
+          <t>2592871</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3021628</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>2586055</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>3236318</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>3987761</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>4566877</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4304</t>
+          <t>4304162</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5677099</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5601468</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>6142</t>
+          <t>6142367</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>6055</t>
+          <t>6054976</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>7703</t>
+          <t>7703085</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>8182</t>
+          <t>8181832</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>7905</t>
+          <t>7905010</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>8773</t>
+          <t>8773116</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>9631</t>
+          <t>9630891</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>9613</t>
+          <t>9613441</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>9972</t>
+          <t>9972183</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>9480</t>
+          <t>9480303</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10727</t>
+          <t>10726575</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>11386</t>
+          <t>11385971</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12116</t>
+          <t>12115657</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>11899</t>
+          <t>11899012</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>13003</t>
+          <t>13003198</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>13684</t>
+          <t>13683962</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>13671</t>
+          <t>13671429</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>12108</t>
+          <t>12107606</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>13940</t>
+          <t>13939883</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>13224</t>
+          <t>13224367</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>13922</t>
+          <t>13921542</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>11640</t>
+          <t>11639527</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>12652</t>
+          <t>12652188</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>13764</t>
+          <t>13764221</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>15058</t>
+          <t>15057681</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>15319</t>
+          <t>15319261</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>16290</t>
+          <t>16290434</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>17485</t>
+          <t>17484637</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>19523</t>
+          <t>19523123</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>18703</t>
+          <t>18703260</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>19896</t>
+          <t>19896324</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>19087</t>
+          <t>19087349</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>20058</t>
+          <t>20058223</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>19304</t>
+          <t>19303709</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>21312</t>
+          <t>21312276</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>21247</t>
+          <t>21247343</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>22183</t>
+          <t>22183018</t>
         </is>
       </c>
     </row>
@@ -1969,243 +1969,243 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-7312</t>
+          <t>-7312366</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1625</t>
+          <t>-1624974</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1718</t>
+          <t>-1717537</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-1550</t>
+          <t>-1550385</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-2164</t>
+          <t>-2163619</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-1751</t>
+          <t>-1751187</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-1786</t>
+          <t>-1786230</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-1349</t>
+          <t>-1348922</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-2168</t>
+          <t>-2168290</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-2233</t>
+          <t>-2232963</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-2435</t>
+          <t>-2434704</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-2324</t>
+          <t>-2323575</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2599</t>
+          <t>-2598690</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-2682</t>
+          <t>-2682088</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-2594</t>
+          <t>-2594490</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-2122</t>
+          <t>-2122129</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-3443</t>
+          <t>-3443053</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-3478</t>
+          <t>-3477536</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-3276</t>
+          <t>-3275514</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-3764</t>
+          <t>-3764147</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-3996</t>
+          <t>-3996203</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-4364</t>
+          <t>-4363653</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-4321</t>
+          <t>-4320672</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-3683</t>
+          <t>-3683121</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>-4293</t>
+          <t>-4293224</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-4318</t>
+          <t>-4318017</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-5613</t>
+          <t>-5612968</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>-5100</t>
+          <t>-5099589</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>-5662</t>
+          <t>-5662212</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>-5132</t>
+          <t>-5131657</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>-4258</t>
+          <t>-4258029</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>-4215</t>
+          <t>-4214895</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>-4707</t>
+          <t>-4707336</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>-4211</t>
+          <t>-4211424</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-4159</t>
+          <t>-4159016</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>-4435</t>
+          <t>-4434962</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>-4732</t>
+          <t>-4732332</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>-5462</t>
+          <t>-5461931</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>-6112</t>
+          <t>-6112330</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>-9846</t>
+          <t>-9845614</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>-7532</t>
+          <t>-7532114</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>-10073</t>
+          <t>-10073152</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>-9775</t>
+          <t>-9775393</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>-9861</t>
+          <t>-9861228</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>-8229</t>
+          <t>-8228511</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>-6262</t>
+          <t>-6262100</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>-7614</t>
+          <t>-7614303</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>-8470</t>
+          <t>-8470184</t>
         </is>
       </c>
     </row>
@@ -2219,243 +2219,243 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>270084</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>130480</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102837</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111160</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>178915</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213773</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>146418</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182718</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>263085</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>298867</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179819</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>166167</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213915</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>290768</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297896</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>319690</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>417169</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>444346</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>303959</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245585</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374555</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>587211</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>732172</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>467657</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>720460</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>816003</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>681701</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>669808</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>937066</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1029081</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1004782</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>1021500</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>704186</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1072144</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>1242450</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1536512</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>1539155</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1865293</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>1422704</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1660009</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1651934</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>2034784</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1565530</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025548</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1446113</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1847853</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>1241676</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1289497</t>
         </is>
       </c>
     </row>
@@ -2469,243 +2469,243 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-207</t>
+          <t>-207013</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>88890</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54242</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-122</t>
+          <t>-122012</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>421986</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-74</t>
+          <t>-73660</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29833</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-48689</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-176</t>
+          <t>-175968</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-85294</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-15143</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1099</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-170</t>
+          <t>-170086</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>136696</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>192142</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>177021</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-109</t>
+          <t>-109409</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177512</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69679</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>338987</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>-360367</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94364</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156763</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>190230</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>263804</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>857276</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82407</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83839</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>263201</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>339356</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1158455</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>863877</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>468661</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>408764</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>-394</t>
+          <t>-394304</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137817</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>-672</t>
+          <t>-671835</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-280730</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>425099</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138728</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221649</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>355450</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>493267</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63097</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>466637</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>284718</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>357439</t>
         </is>
       </c>
     </row>
@@ -2719,239 +2719,243 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97298</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26158</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>191275</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-151</t>
+          <t>-151404</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-51519</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23075</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>152116</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>210779</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234976</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18636</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>268119</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>167901</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21663</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23034</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>108253</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>112335</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>987309</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>841</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr"/>
+          <t>840737</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1745126</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72816</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29647</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42539</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3585</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-9109</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-30709</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12968</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>142854</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83773</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-395391</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>-165</t>
+          <t>-164872</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5291</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>6397</t>
+          <t>6396593</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297508</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62894</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51761</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>817515</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>1545952</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-9465</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>-289</t>
+          <t>-288849</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>-149</t>
+          <t>-149421</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>-102</t>
+          <t>-102379</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-50907</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>104026</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8940</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>362934</t>
         </is>
       </c>
     </row>
@@ -2969,219 +2973,219 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22233</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-22233</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83479</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55506</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112534</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92037</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>172607</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>85298</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>365664</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>183441</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>220988</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>330866</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>362759</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289922</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>443745</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>862433</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>496578</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>225394</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>522218</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>506113</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>611096</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>452606</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>570892</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>529545</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>575197</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>704884</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>671401</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>1323566</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>588115</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>713535</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1023591</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>1189238</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>819904</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>559418</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>625895</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522822</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>786958</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>373028</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1302221</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>1576529</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>2323108</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>855635</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>882000</t>
         </is>
       </c>
     </row>
@@ -3195,243 +3199,243 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-1794</t>
+          <t>-1793885</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-595</t>
+          <t>-594792</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-723</t>
+          <t>-722915</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-722</t>
+          <t>-721737</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-841</t>
+          <t>-841002</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-1142</t>
+          <t>-1141595</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-1100</t>
+          <t>-1100474</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-1076</t>
+          <t>-1075645</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-1326</t>
+          <t>-1326489</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-1563</t>
+          <t>-1563174</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-1444</t>
+          <t>-1444431</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-1670</t>
+          <t>-1670047</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-1807</t>
+          <t>-1806973</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-1558</t>
+          <t>-1557983</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-2000</t>
+          <t>-2000125</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-1933</t>
+          <t>-1932694</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-2038</t>
+          <t>-2037871</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-2589</t>
+          <t>-2589415</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-2720</t>
+          <t>-2719940</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-2322</t>
+          <t>-2322139</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-2673</t>
+          <t>-2673446</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-2901</t>
+          <t>-2901472</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-3074</t>
+          <t>-3073828</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>-2703</t>
+          <t>-2703289</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>-2765</t>
+          <t>-2765422</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-3264</t>
+          <t>-3264385</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-3146</t>
+          <t>-3146474</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>-2354</t>
+          <t>-2354007</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>-2425</t>
+          <t>-2425354</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>-2937</t>
+          <t>-2936760</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>-2861</t>
+          <t>-2861271</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>-2514</t>
+          <t>-2514222</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>-2378</t>
+          <t>-2377773</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>-2885</t>
+          <t>-2884796</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-3179</t>
+          <t>-3179242</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>-3249</t>
+          <t>-3248996</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>-3449</t>
+          <t>-3449152</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>-3995</t>
+          <t>-3995199</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>-3089</t>
+          <t>-3089072</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>-3888</t>
+          <t>-3888136</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>-3012</t>
+          <t>-3012237</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>-3574</t>
+          <t>-3573732</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>-3073</t>
+          <t>-3073449</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>-3270</t>
+          <t>-3269647</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>-3214</t>
+          <t>-3214291</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>-3953</t>
+          <t>-3953259</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>-3346</t>
+          <t>-3345536</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>-4613</t>
+          <t>-4612564</t>
         </is>
       </c>
     </row>
@@ -3445,243 +3449,243 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-256</t>
+          <t>-256026</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-44421</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-225196</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-44029</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-98</t>
+          <t>-97736</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-136</t>
+          <t>-135642</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-78629</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-89</t>
+          <t>-89029</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-146</t>
+          <t>-145706</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-192</t>
+          <t>-192157</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-274</t>
+          <t>-273552</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-166</t>
+          <t>-165666</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-127</t>
+          <t>-127234</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-229</t>
+          <t>-228723</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-468</t>
+          <t>-468457</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-398</t>
+          <t>-398218</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-165</t>
+          <t>-165362</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>-469635</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-656</t>
+          <t>-655651</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-345114</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-328</t>
+          <t>-328148</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-481766</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-688</t>
+          <t>-688274</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>-374</t>
+          <t>-373546</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-433402</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>-770</t>
+          <t>-770029</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-520</t>
+          <t>-519861</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52003</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>-538</t>
+          <t>-537944</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>-917</t>
+          <t>-917339</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>-1170</t>
+          <t>-1169938</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>-161</t>
+          <t>-160661</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>-500</t>
+          <t>-500184</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>-1750</t>
+          <t>-1750354</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>-4698</t>
+          <t>-4698123</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3694</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>-1718</t>
+          <t>-1717809</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-25646</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>-3158</t>
+          <t>-3158206</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>-566</t>
+          <t>-565955</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>-190</t>
+          <t>-190425</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>-168</t>
+          <t>-168253</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>-1549</t>
+          <t>-1548536</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>-1066</t>
+          <t>-1065780</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>-599</t>
+          <t>-598723</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>-291</t>
+          <t>-290829</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>-2531</t>
+          <t>-2530896</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>-574</t>
+          <t>-574385</t>
         </is>
       </c>
     </row>
@@ -3695,243 +3699,243 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>523761</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>735652</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>88761</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>908133</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-89</t>
+          <t>-89038</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>296488</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1221754</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>2422905</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1352975</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>2159214</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1653979</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>2574829</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1988094</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>3742</t>
+          <t>3742300</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3760</t>
+          <t>3759827</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>4293042</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>4164</t>
+          <t>4164221</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>4779</t>
+          <t>4779310</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>4574</t>
+          <t>4574466</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>4299929</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>4062336</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>5448</t>
+          <t>5448232</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>4427943</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>6532</t>
+          <t>6531986</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>5866</t>
+          <t>5866306</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>6338</t>
+          <t>6338085</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>6387</t>
+          <t>6387133</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>7562</t>
+          <t>7562234</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>5019578</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>6964</t>
+          <t>6964460</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>7067924</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>9488</t>
+          <t>9487729</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>6781</t>
+          <t>6780991</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5929243</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>10489</t>
+          <t>10489182</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>9833</t>
+          <t>9833336</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>8349</t>
+          <t>8349072</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>8873</t>
+          <t>8872781</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>7644</t>
+          <t>7643936</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>9480</t>
+          <t>9480373</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>10273</t>
+          <t>10272503</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>8836</t>
+          <t>8835729</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>6834558</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>9580</t>
+          <t>9580225</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>10297</t>
+          <t>10297016</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>15548</t>
+          <t>15547712</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>10148</t>
+          <t>10147577</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>11418</t>
+          <t>11417755</t>
         </is>
       </c>
     </row>
@@ -4003,243 +4007,243 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-2635</t>
+          <t>-2634633</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1195289</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>2972415</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>3717539</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-2414</t>
+          <t>-2414429</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-6023</t>
+          <t>-6023451</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>3752747</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2278</t>
+          <t>2278468</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-2191</t>
+          <t>-2190775</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1952320</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-898</t>
+          <t>-897768</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>707698</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3077</t>
+          <t>3076845</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-2317</t>
+          <t>-2316574</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>4340</t>
+          <t>4339730</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1019</t>
+          <t>-1018897</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1668897</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-1991</t>
+          <t>-1991306</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-439996</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2581301</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-123</t>
+          <t>-123239</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>-950</t>
+          <t>-949894</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-135</t>
+          <t>-134771</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>-1256</t>
+          <t>-1256379</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>796071</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>-2786</t>
+          <t>-2785625</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>355039</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>-1976</t>
+          <t>-1976146</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>-1467</t>
+          <t>-1466961</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1976852</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>545485</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>-4393</t>
+          <t>-4392907</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>5490070</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>-12775</t>
+          <t>-12774909</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>4501507</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>-4863</t>
+          <t>-4863025</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1500628</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>8505</t>
+          <t>8505320</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>341716</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>-2632</t>
+          <t>-2632126</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>-5114</t>
+          <t>-5113668</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>1822987</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>-8634</t>
+          <t>-8634075</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>-9735</t>
+          <t>-9735288</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>14921</t>
+          <t>14920525</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>8127</t>
+          <t>8127161</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000264</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>-12793</t>
+          <t>-12792943</t>
         </is>
       </c>
     </row>
@@ -4253,243 +4257,243 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-2686</t>
+          <t>-2685785</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1632</t>
+          <t>-1631605</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-2412</t>
+          <t>-2412438</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-5652</t>
+          <t>-5651875</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-2091</t>
+          <t>-2090734</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>800871</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>2102616</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-3579</t>
+          <t>-3578994</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-3248</t>
+          <t>-3248080</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4701</t>
+          <t>4701469</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-6846</t>
+          <t>-6846027</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-1688</t>
+          <t>-1688264</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5055</t>
+          <t>5055416</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-5411</t>
+          <t>-5410839</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>2808942</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-3497</t>
+          <t>-3496948</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1234094</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2143</t>
+          <t>2142937</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>764886</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-3350</t>
+          <t>-3350413</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-8401</t>
+          <t>-8400905</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>8837</t>
+          <t>8837063</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-3510</t>
+          <t>-3509992</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>3318378</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>-8685</t>
+          <t>-8685217</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>-7514</t>
+          <t>-7513847</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>-10026</t>
+          <t>-10026423</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>4726008</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>-3041</t>
+          <t>-3041470</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>1486800</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>-8650</t>
+          <t>-8650458</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>17980</t>
+          <t>17979963</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>-10964</t>
+          <t>-10963530</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>-3858</t>
+          <t>-3858294</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>-13985</t>
+          <t>-13984725</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>-10602</t>
+          <t>-10602099</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>13866</t>
+          <t>13865801</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>3621413</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>815837</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>-3374</t>
+          <t>-3374055</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>-7676</t>
+          <t>-7676193</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>-4837</t>
+          <t>-4836969</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>11870</t>
+          <t>11869546</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>22572</t>
+          <t>22571913</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2360764</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>2717798</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>-6948</t>
+          <t>-6947737</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>-11261</t>
+          <t>-11260668</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4507,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-57471</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4516,12 +4520,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-68529</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68529</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -4535,43 +4539,43 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-82</t>
+          <t>-81909</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>78207</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-22884</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>-78</t>
+          <t>-77623</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100507</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-252332</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>252332</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr"/>
@@ -4579,71 +4583,71 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-50728</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50728</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>-103299</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69752</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-486187</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>-601</t>
+          <t>-600952</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1120686</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>-75</t>
+          <t>-75180</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75180</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>-583</t>
+          <t>-582774</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>582774</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-61338</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61338</t>
         </is>
       </c>
     </row>
@@ -4657,243 +4661,243 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-7720</t>
+          <t>-7719662</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-2368</t>
+          <t>-2368222</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-1810</t>
+          <t>-1810382</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-8014</t>
+          <t>-8014020</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-9011</t>
+          <t>-9010536</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-9696</t>
+          <t>-9695735</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-6613</t>
+          <t>-6612502</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-12260</t>
+          <t>-12260096</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-11801</t>
+          <t>-11800579</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-9193</t>
+          <t>-9193242</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1553955</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-2130</t>
+          <t>-2130075</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-11910</t>
+          <t>-11909826</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-15156</t>
+          <t>-15155873</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-7390</t>
+          <t>-7389752</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-10117</t>
+          <t>-10116825</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-5588</t>
+          <t>-5588107</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-14701</t>
+          <t>-14701115</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-6895</t>
+          <t>-6894899</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-9583</t>
+          <t>-9582550</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-691</t>
+          <t>-691379</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>-21424</t>
+          <t>-21424387</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-8513</t>
+          <t>-8513436</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>-15177</t>
+          <t>-15176720</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>-5903</t>
+          <t>-5903329</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>-2059</t>
+          <t>-2058958</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>-6564</t>
+          <t>-6563952</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>-6392</t>
+          <t>-6391588</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>-7886</t>
+          <t>-7885853</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>-13051</t>
+          <t>-13050966</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>-10347</t>
+          <t>-10347074</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>-9680</t>
+          <t>-9679800</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>-7157</t>
+          <t>-7157086</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>-38025</t>
+          <t>-38024857</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>-19160</t>
+          <t>-19159640</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>-18038</t>
+          <t>-18038411</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>-10135</t>
+          <t>-10135429</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>-35679</t>
+          <t>-35679483</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>-25103</t>
+          <t>-25103388</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>-26174</t>
+          <t>-26173621</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>-32892</t>
+          <t>-32892236</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>-48072</t>
+          <t>-48071567</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>-16422</t>
+          <t>-16421630</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>-42329</t>
+          <t>-42328906</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>-11406</t>
+          <t>-11406240</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>-59213</t>
+          <t>-59212724</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>-38379</t>
+          <t>-38378674</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>-94891</t>
+          <t>-94891390</t>
         </is>
       </c>
     </row>
@@ -4907,243 +4911,243 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-281106</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-27918</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-41030</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>-59286</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>-215764</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-391010</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-756</t>
+          <t>-755626</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-233</t>
+          <t>-232541</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-333</t>
+          <t>-333051</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-704</t>
+          <t>-703568</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-1123</t>
+          <t>-1123374</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-2054</t>
+          <t>-2053999</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-680</t>
+          <t>-680184</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-1025</t>
+          <t>-1025372</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-1047</t>
+          <t>-1047497</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-2482</t>
+          <t>-2482313</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-1446</t>
+          <t>-1445966</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-1808</t>
+          <t>-1808486</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>-2113</t>
+          <t>-2112592</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>-2612</t>
+          <t>-2611710</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>-2371</t>
+          <t>-2370698</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-3581</t>
+          <t>-3581250</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-3221</t>
+          <t>-3220692</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>-3421</t>
+          <t>-3420651</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>-3269</t>
+          <t>-3268737</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>-4460</t>
+          <t>-4459697</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>-3642</t>
+          <t>-3641875</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>-2642</t>
+          <t>-2642443</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>-3243</t>
+          <t>-3242603</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>-4680</t>
+          <t>-4679867</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>-4379</t>
+          <t>-4379217</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>-3943</t>
+          <t>-3943427</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>-3583</t>
+          <t>-3583427</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>-1793</t>
+          <t>-1792580</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>-2593</t>
+          <t>-2592668</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>-4311</t>
+          <t>-4311044</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>-5665</t>
+          <t>-5664519</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>-6169</t>
+          <t>-6169258</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>-6736</t>
+          <t>-6735589</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>-5098</t>
+          <t>-5098025</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>-5869</t>
+          <t>-5868823</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>-1743</t>
+          <t>-1742522</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>-5265</t>
+          <t>-5265384</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>-7596</t>
+          <t>-7595953</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>-5434</t>
+          <t>-5434478</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>-5215</t>
+          <t>-5215412</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>-5219</t>
+          <t>-5219010</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>-4757</t>
+          <t>-4756587</t>
         </is>
       </c>
     </row>
@@ -5157,243 +5161,243 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-4342</t>
+          <t>-4342126</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-1146</t>
+          <t>-1146370</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131601</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-880</t>
+          <t>-879978</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1900634</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>2488753</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-640</t>
+          <t>-639533</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>1828955</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>1158962</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>268215</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-435</t>
+          <t>-434614</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-449911</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-29381</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>523184</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-683</t>
+          <t>-683443</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-1360</t>
+          <t>-1360114</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-1395</t>
+          <t>-1394775</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>268817</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>815662</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>-538</t>
+          <t>-537570</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>-1719</t>
+          <t>-1719062</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>-955</t>
+          <t>-955378</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-1294</t>
+          <t>-1293655</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>-204</t>
+          <t>-204088</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>-465</t>
+          <t>-465463</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-5074</t>
+          <t>-5073783</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1014736</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>-659</t>
+          <t>-659341</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>-640</t>
+          <t>-639793</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>-67309</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>-1839</t>
+          <t>-1838780</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>-7240</t>
+          <t>-7239707</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>-2552</t>
+          <t>-2551566</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>-9875</t>
+          <t>-9875329</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>3237</t>
+          <t>3236797</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>-4810</t>
+          <t>-4810178</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>-4852</t>
+          <t>-4852034</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>3817</t>
+          <t>3817259</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>-580</t>
+          <t>-580172</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>228914</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>-5005</t>
+          <t>-5005021</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>6408</t>
+          <t>6407638</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>2890</t>
+          <t>2889588</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>-284</t>
+          <t>-284236</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>15539</t>
+          <t>15538960</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>4693</t>
+          <t>4692706</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>-22224</t>
+          <t>-22223980</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>18960</t>
+          <t>18959747</t>
         </is>
       </c>
     </row>
@@ -5465,219 +5469,223 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>454445</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-1885</t>
+          <t>-1885457</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>832555</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-833</t>
+          <t>-832555</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4821</t>
+          <t>4821063</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-4813</t>
+          <t>-4813460</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16416</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>1077829</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-1076</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
+          <t>-1075967</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>-477</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-601</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-626</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1999701</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-702</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>1756831</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>-3760</t>
+          <t>-3759692</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1999096</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-779</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-2000</t>
+          <t>-2000476</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-899</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1718</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1249</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1406</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15396</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-17065</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>8439</t>
+          <t>8439037</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>-7154</t>
+          <t>-7153506</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>-1288</t>
+          <t>-1288286</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1787</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1918437</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>-963</t>
+          <t>-963230</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>-936</t>
+          <t>-935524</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-17556</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>4105388</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>-4006</t>
+          <t>-4006446</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>276075</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>-361913</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-20314</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>933864</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3406556</t>
         </is>
       </c>
     </row>
@@ -5691,243 +5699,243 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>68126</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-7196</t>
+          <t>-7195873</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>4749939</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>1432122</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>4486946</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2425190</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-3732</t>
+          <t>-3731748</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-265</t>
+          <t>-265133</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>6337387</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-10804</t>
+          <t>-10804326</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>5748</t>
+          <t>5747695</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>4276</t>
+          <t>4275983</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-10044</t>
+          <t>-10043780</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>8135</t>
+          <t>8134809</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-14616</t>
+          <t>-14616037</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>6841</t>
+          <t>6841118</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-2075</t>
+          <t>-2075359</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>14215</t>
+          <t>14214798</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>-8481</t>
+          <t>-8481452</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2261</t>
+          <t>2260848</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>6147</t>
+          <t>6147039</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16241</t>
+          <t>16241167</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>-14376</t>
+          <t>-14376205</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>5581</t>
+          <t>5581181</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>-5334</t>
+          <t>-5333863</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>10765</t>
+          <t>10765425</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>12867</t>
+          <t>12866632</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>-17332</t>
+          <t>-17332225</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>3141</t>
+          <t>3140981</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>6968</t>
+          <t>6967905</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>14411</t>
+          <t>14410650</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>7299</t>
+          <t>7298805</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>19668</t>
+          <t>19668138</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>16730</t>
+          <t>16730231</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>-10865</t>
+          <t>-10864516</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>19043</t>
+          <t>19042539</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>5787851</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>11664</t>
+          <t>11664136</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>-319</t>
+          <t>-319283</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>13816</t>
+          <t>13816445</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>6323</t>
+          <t>6322857</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>-3712</t>
+          <t>-3712484</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>-2510</t>
+          <t>-2510035</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>24734</t>
+          <t>24734080</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>-11165</t>
+          <t>-11164560</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>34340</t>
+          <t>34340285</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>-15265</t>
+          <t>-15265229</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>42874</t>
+          <t>42873523</t>
         </is>
       </c>
     </row>
@@ -5941,243 +5949,243 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>30102</t>
+          <t>30102006</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11170</t>
+          <t>11169891</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5183</t>
+          <t>5182535</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>2539749</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>8730</t>
+          <t>8730003</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>8029</t>
+          <t>8029266</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>3336454</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>8740306</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>7086</t>
+          <t>7085596</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>2675538</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-1060</t>
+          <t>-1059609</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-10612</t>
+          <t>-10611612</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>7928174</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-2740</t>
+          <t>-2740051</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>5712030</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114596</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-1839</t>
+          <t>-1838691</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>5775</t>
+          <t>5775451</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>9570</t>
+          <t>9570272</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>8181</t>
+          <t>8181251</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>5139583</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14409</t>
+          <t>14408953</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>17266</t>
+          <t>17266372</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>9246</t>
+          <t>9245656</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>8222481</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>8364</t>
+          <t>8364188</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>1766195</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>21061</t>
+          <t>21060952</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>4881248</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>-8230</t>
+          <t>-8230010</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>-1001</t>
+          <t>-1001250</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1164647</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>5766</t>
+          <t>5765970</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2479708</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>32312</t>
+          <t>32311669</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>21271</t>
+          <t>21270874</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>-17997</t>
+          <t>-17997239</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>25729</t>
+          <t>25729085</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>28033</t>
+          <t>28033011</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>56427</t>
+          <t>56426716</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>33861</t>
+          <t>33860604</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>20897</t>
+          <t>20896633</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>13449</t>
+          <t>13449097</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>15531</t>
+          <t>15531138</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>4433723</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>9884</t>
+          <t>9884209</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>66707</t>
+          <t>66707433</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>48400</t>
+          <t>48400183</t>
         </is>
       </c>
     </row>
@@ -6191,239 +6199,243 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-10276</t>
+          <t>-10276015</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>250000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-68</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239932</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-686</t>
+          <t>-686369</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>5255294</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1857864</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>3810902</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>2039224</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>3822407</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>8913</t>
+          <t>8912696</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3216260</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>5253</t>
+          <t>5253419</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>6531</t>
+          <t>6531251</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>8255</t>
+          <t>8254538</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>8923</t>
+          <t>8923367</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-1539</t>
+          <t>-1538829</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1815002</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>701770</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>-2495</t>
+          <t>-2495436</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>-5551</t>
+          <t>-5551360</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-7602</t>
+          <t>-7601544</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-1796</t>
+          <t>-1795840</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>6893</t>
+          <t>6892613</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>4779</t>
+          <t>4778943</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1680971</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>-1257</t>
+          <t>-1256682</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>-1370</t>
+          <t>-1370288</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>3979</t>
+          <t>3979407</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>3893328</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2109836</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2454946</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>769892</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>13377</t>
+          <t>13377431</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>-4514</t>
+          <t>-4514036</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>-756</t>
+          <t>-756205</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>-3153</t>
+          <t>-3152830</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>-9173</t>
+          <t>-9172588</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>18785</t>
+          <t>18785045</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>-9204</t>
+          <t>-9203932</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>-8282</t>
+          <t>-8281760</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>-17212</t>
+          <t>-17212015</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>-1443</t>
+          <t>-1442956</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>7855</t>
+          <t>7855353</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>-3258</t>
+          <t>-3258208</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>16034</t>
+          <t>16034203</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
         <is>
-          <t>11813</t>
+          <t>11813286</t>
         </is>
       </c>
       <c r="AZ29" t="inlineStr">
         <is>
-          <t>4352</t>
+          <t>4351568</t>
         </is>
       </c>
     </row>
@@ -6437,243 +6449,243 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-35642</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-15985</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15542</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44771</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-49190</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50386</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25189</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43840</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123887</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65026</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-15968</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-40778</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-36367</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1099711</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>885606</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>590641</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1200437</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-167</t>
+          <t>-167106</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-122</t>
+          <t>-121572</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123944</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-7534</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6034</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4472</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5303</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-14977</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13074</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-15505</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-29451</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-26576</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-33135</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-22741</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-21727</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-19672</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-19086</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-17066</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-15125</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13756</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-10933</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-8050</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-6567</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5895</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4493</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3655</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2861</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2504</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2131</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1702</t>
         </is>
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1695</t>
         </is>
       </c>
     </row>
@@ -6687,165 +6699,173 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2541</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-33280</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84991</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2543</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68998</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13036</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3836</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-76</t>
+          <t>-76490</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-135</t>
+          <t>-135007</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131760</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111364</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48783</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-159749</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59167</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9113</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-62586</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-21123</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43740</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-14858</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>-146</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr"/>
+          <t>-145611</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18572</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr"/>
+          <t>-18571</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12052</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33618</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-45670</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>196919</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>-73</t>
+          <t>-73284</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16190</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>-75</t>
+          <t>-75491</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-64334</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>76316</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>-76</t>
+          <t>-76316</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr"/>
@@ -6853,49 +6873,57 @@
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15369</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>809723</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13959</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>-839</t>
-        </is>
-      </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
+          <t>-839051</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>-392</t>
+        </is>
+      </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>1023282</t>
         </is>
       </c>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242762</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>-1238</t>
+          <t>-1237987</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-28057</t>
         </is>
       </c>
       <c r="AZ31" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>572805</t>
         </is>
       </c>
     </row>
@@ -6909,243 +6937,243 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-1170</t>
+          <t>-1170365</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-1131</t>
+          <t>-1131331</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>581826</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>282864</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-187147</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-1608</t>
+          <t>-1607518</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239896</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-907</t>
+          <t>-906942</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-652</t>
+          <t>-652317</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-222</t>
+          <t>-221611</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222587</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223530</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>532065</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>980137</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>166051</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85915</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>895471</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151037</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>988585</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-529247</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>713257</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>-260</t>
+          <t>-259623</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>250374</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-154639</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>-567</t>
+          <t>-567060</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>-549114</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>697273</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-211458</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>623461</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>342368</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>-591</t>
+          <t>-591262</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>-481</t>
+          <t>-480718</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-158714</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>775218</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447722</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>914476</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>-755</t>
+          <t>-754574</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1468944</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>-1585</t>
+          <t>-1584874</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>210522</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3655779</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>2672</t>
+          <t>2671561</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>-1534</t>
+          <t>-1534086</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>-313</t>
+          <t>-313350</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>780473</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>-1821</t>
+          <t>-1821243</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>2074109</t>
         </is>
       </c>
       <c r="AZ32" t="inlineStr">
         <is>
-          <t>8463</t>
+          <t>8462878</t>
         </is>
       </c>
     </row>
@@ -7157,9 +7185,17 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -7217,243 +7253,243 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1942986</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-199753</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>7658</t>
+          <t>7658235</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-5443</t>
+          <t>-5442592</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>443374</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2474125</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-39280</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1805180</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-330</t>
+          <t>-330307</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-257</t>
+          <t>-257206</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>3011456</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-5911</t>
+          <t>-5911140</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>976564</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-4500</t>
+          <t>-4500321</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1123141</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>2311</t>
+          <t>2310519</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-4740</t>
+          <t>-4740331</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>10522</t>
+          <t>10522453</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1349973</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>-1888</t>
+          <t>-1887674</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>-2799</t>
+          <t>-2798963</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12023</t>
+          <t>12022983</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-14706</t>
+          <t>-14705521</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13274</t>
+          <t>13273508</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>-4463</t>
+          <t>-4463065</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2727713</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1283670</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>3183787</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1266886</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>-4415</t>
+          <t>-4414790</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>-2757</t>
+          <t>-2756982</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>12496</t>
+          <t>12495677</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>14171</t>
+          <t>14170897</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>-18794</t>
+          <t>-18793802</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>-7230</t>
+          <t>-7229528</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>5891</t>
+          <t>5890665</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>-13670</t>
+          <t>-13669768</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>15701</t>
+          <t>15701168</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>21135</t>
+          <t>21134682</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>32753</t>
+          <t>32753079</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>-11664</t>
+          <t>-11663640</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
-          <t>-30765</t>
+          <t>-30764542</t>
         </is>
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>-5359</t>
+          <t>-5358644</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>21894</t>
+          <t>21894246</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>16946</t>
+          <t>16946320</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>23834</t>
+          <t>23834263</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
         <is>
-          <t>8551</t>
+          <t>8550806</t>
         </is>
       </c>
       <c r="AZ34" t="inlineStr">
         <is>
-          <t>14803</t>
+          <t>14803070</t>
         </is>
       </c>
     </row>
@@ -7525,239 +7561,243 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-167</t>
+          <t>-167468</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-10272</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-12172</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-155346</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-115</t>
+          <t>-115286</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185859</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-40845</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39678</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-30269</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-111322</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-194855</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>134872</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59983</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-188473</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-79236</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-22634</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-86</t>
+          <t>-85611</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-26935</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-26795</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-6922</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4712</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-80</t>
+          <t>-80106</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-15875</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13341</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4733</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14273</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7140</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4493</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5242</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8659</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-25111</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8632</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6379</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>745</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2154</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-30615</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-37127</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-36003</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4838</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-18471</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-31852</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-52049</t>
         </is>
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AV36" t="inlineStr"/>
+          <t>-994</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>-497</t>
+        </is>
+      </c>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1534</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-56271</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-64029</t>
         </is>
       </c>
       <c r="AZ36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18218</t>
         </is>
       </c>
     </row>
@@ -7769,153 +7809,221 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-10578</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2893</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1381</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
+          <t>24343</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131514</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>188259</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>-142</t>
+          <t>-142279</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-243</t>
+          <t>-243385</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>245128</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+          <t>237292</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>-324</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1903</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>574</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12376</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr"/>
+          <t>11548</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6528</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr"/>
+          <t>1720</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="AL37" t="inlineStr">
         <is>
+          <t>1385</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>2507</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AX37" t="inlineStr"/>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
       <c r="AY37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8182</t>
         </is>
       </c>
       <c r="AZ37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>659</t>
         </is>
       </c>
     </row>
@@ -7931,35 +8039,51 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+          <t>7978</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-87</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1578</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+          <t>1666</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>-70</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47671</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-47671</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -7992,7 +8116,11 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>-259</t>
+        </is>
+      </c>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
       <c r="AZ38" t="inlineStr"/>
@@ -8081,7 +8209,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="U40" t="inlineStr"/>
@@ -8141,7 +8269,11 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>-52</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
@@ -8187,7 +8319,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -8195,17 +8327,21 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-1223</t>
+          <t>-1222817</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-185</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
+          <t>-185277</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -8215,7 +8351,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-30000</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -8227,7 +8363,7 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-11000</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr"/>
@@ -8239,19 +8375,23 @@
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16500</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>-118</t>
-        </is>
-      </c>
-      <c r="AN42" t="inlineStr"/>
+          <t>-117827</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>-517612</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr"/>
@@ -8275,13 +8415,13 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55474</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4633</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -8290,54 +8430,54 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42500</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>338902</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>550</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7705</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>568</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157172</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>846</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-846</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -8352,12 +8492,12 @@
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5509</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>25928</t>
+          <t>25928205</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr"/>
@@ -8385,37 +8525,45 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17092</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>32843</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -8423,7 +8571,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>872</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -8431,50 +8579,54 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>598</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>845</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-845</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>845</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr"/>
+          <t>2635</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr"/>
@@ -8482,7 +8634,7 @@
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12801</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr"/>
@@ -8490,7 +8642,7 @@
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -8498,18 +8650,18 @@
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9654</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
       <c r="AZ44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7317</t>
         </is>
       </c>
     </row>
@@ -8523,235 +8675,243 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-94</t>
+          <t>-94485</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16640</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-12171</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-151508</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-110613</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-1035</t>
+          <t>-1034859</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13965</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-215</t>
+          <t>-215145</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>361092</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6046</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7407</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-136</t>
+          <t>-135731</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17561</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-79236</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224606</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-85367</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100941</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-26779</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5655</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2793</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>-82</t>
+          <t>-82010</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-15875</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11975</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1525</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12897</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4361</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-25111</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-6912</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>25914</t>
+          <t>25913835</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>-120</t>
+          <t>-119733</t>
         </is>
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-28107</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-24238</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>-553</t>
+          <t>-553216</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4388</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-18471</t>
         </is>
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-28449</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>-52</t>
-        </is>
-      </c>
-      <c r="AU45" t="inlineStr"/>
-      <c r="AV45" t="inlineStr"/>
+          <t>-51790</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>-69</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>-496</t>
+        </is>
+      </c>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-46697</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-55847</t>
         </is>
       </c>
       <c r="AZ45" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26194</t>
         </is>
       </c>
     </row>
@@ -8831,11 +8991,19 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+          <t>2019690</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -8843,12 +9011,12 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-550</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>6225</t>
+          <t>6224936</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -8856,7 +9024,7 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>336951</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
@@ -8881,7 +9049,7 @@
       <c r="AS47" t="inlineStr"/>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>35898</t>
+          <t>35897546</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr"/>
@@ -8903,7 +9071,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2500000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -8919,7 +9087,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>2876960</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -8988,7 +9156,7 @@
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>-2500</t>
+          <t>-2500000</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr"/>
@@ -8996,12 +9164,12 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>-1000</t>
+          <t>-1000000</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>-1615</t>
+          <t>-1615000</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr"/>
@@ -9013,7 +9181,7 @@
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>-262</t>
+          <t>-261960</t>
         </is>
       </c>
       <c r="AM49" t="inlineStr"/>
@@ -9054,7 +9222,7 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-146</t>
+          <t>-146439</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -9062,7 +9230,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-146</t>
+          <t>-146439</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -9070,7 +9238,7 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>-146</t>
+          <t>-146439</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr"/>
@@ -9095,25 +9263,25 @@
       <c r="AS50" t="inlineStr"/>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>-7934</t>
+          <t>-7933924</t>
         </is>
       </c>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr">
         <is>
-          <t>-7935</t>
+          <t>-7935139</t>
         </is>
       </c>
       <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-693</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
       <c r="AZ50" t="inlineStr">
         <is>
-          <t>-3968</t>
+          <t>-3968172</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9316,7 @@
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>-2492</t>
+          <t>-2491721</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr"/>
@@ -9157,7 +9325,7 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>-1111</t>
+          <t>-1110590</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr"/>
@@ -9219,7 +9387,7 @@
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>310000</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr"/>
@@ -9227,14 +9395,14 @@
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170000</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150000</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr"/>
@@ -9242,7 +9410,7 @@
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>300000</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr"/>
@@ -9251,7 +9419,7 @@
       <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>302196</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr"/>
@@ -9273,7 +9441,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2500000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -9283,32 +9451,40 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+          <t>2019690</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-146</t>
+          <t>-146439</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>2876960</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-550</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>6078</t>
+          <t>6078497</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -9316,20 +9492,24 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>-4801</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr"/>
+          <t>-4801210</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>-1000</t>
+          <t>-1000000</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>-2416</t>
+          <t>-2415590</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr"/>
@@ -9337,26 +9517,26 @@
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170000</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150000</t>
         </is>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
-          <t>-262</t>
+          <t>-261960</t>
         </is>
       </c>
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>300000</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr"/>
@@ -9365,25 +9545,25 @@
       <c r="AS53" t="inlineStr"/>
       <c r="AT53" t="inlineStr">
         <is>
-          <t>28266</t>
+          <t>28265818</t>
         </is>
       </c>
       <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>-7935</t>
+          <t>-7935139</t>
         </is>
       </c>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-693</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
       <c r="AZ53" t="inlineStr">
         <is>
-          <t>-3968</t>
+          <t>-3968172</t>
         </is>
       </c>
     </row>
@@ -9397,243 +9577,243 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1848501</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2316887</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>7646</t>
+          <t>7646064</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-5594</t>
+          <t>-5594100</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>332761</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>1439266</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>-38</t>
+          <t>-37695</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>3810905</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-545</t>
+          <t>-545453</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103887</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>3005410</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-5919</t>
+          <t>-5918547</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>694394</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-1606</t>
+          <t>-1605800</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>1043905</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2534575</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>1252799</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>10623</t>
+          <t>10623394</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1323194</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>-1893</t>
+          <t>-1893329</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>-7603</t>
+          <t>-7602966</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11941</t>
+          <t>11940974</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>-14721</t>
+          <t>-14721397</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13262</t>
+          <t>13261534</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>-5465</t>
+          <t>-5464590</t>
         </is>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>299226</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1288078</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>3179425</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1270709</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>-4243</t>
+          <t>-4243466</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>-2782</t>
+          <t>-2782093</t>
         </is>
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>12489</t>
+          <t>12488765</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>14322</t>
+          <t>14321992</t>
         </is>
       </c>
       <c r="AL54" t="inlineStr">
         <is>
-          <t>6858</t>
+          <t>6858073</t>
         </is>
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>-7349</t>
+          <t>-7349261</t>
         </is>
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5862558</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>-13394</t>
+          <t>-13394006</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>15148</t>
+          <t>15147952</t>
         </is>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>21130</t>
+          <t>21130294</t>
         </is>
       </c>
       <c r="AR54" t="inlineStr">
         <is>
-          <t>32735</t>
+          <t>32734608</t>
         </is>
       </c>
       <c r="AS54" t="inlineStr">
         <is>
-          <t>-11692</t>
+          <t>-11692089</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr">
         <is>
-          <t>-2551</t>
+          <t>-2550514</t>
         </is>
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>-5359</t>
+          <t>-5358713</t>
         </is>
       </c>
       <c r="AV54" t="inlineStr">
         <is>
-          <t>13959</t>
+          <t>13958611</t>
         </is>
       </c>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>16949</t>
+          <t>16948543</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>23787</t>
+          <t>23786873</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr">
         <is>
-          <t>8495</t>
+          <t>8494959</t>
         </is>
       </c>
       <c r="AZ54" t="inlineStr">
         <is>
-          <t>10861</t>
+          <t>10861092</t>
         </is>
       </c>
     </row>
@@ -9647,14 +9827,14 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16139</t>
+          <t>16139484</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5468</t>
+          <t>5468034</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -9662,7 +9842,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>9292</t>
+          <t>9292025</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -9670,7 +9850,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>12624</t>
+          <t>12623669</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -9678,7 +9858,7 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
-          <t>8799</t>
+          <t>8799126</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -9686,15 +9866,19 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr">
         <is>
-          <t>24254</t>
+          <t>24253800</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>28022</t>
+          <t>28021672</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr"/>
@@ -9702,7 +9886,7 @@
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>21396</t>
+          <t>21396445</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr"/>
@@ -9710,7 +9894,7 @@
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>22891</t>
+          <t>22891191</t>
         </is>
       </c>
       <c r="AJ55" t="inlineStr"/>
@@ -9718,7 +9902,7 @@
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr">
         <is>
-          <t>53778</t>
+          <t>53777928</t>
         </is>
       </c>
       <c r="AN55" t="inlineStr"/>
@@ -9726,7 +9910,7 @@
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>54045</t>
+          <t>54045171</t>
         </is>
       </c>
       <c r="AR55" t="inlineStr"/>
@@ -9734,7 +9918,7 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr">
         <is>
-          <t>93667</t>
+          <t>93667470</t>
         </is>
       </c>
       <c r="AV55" t="inlineStr"/>
@@ -9742,7 +9926,7 @@
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="inlineStr">
         <is>
-          <t>143003</t>
+          <t>143002784</t>
         </is>
       </c>
       <c r="AZ55" t="inlineStr"/>
@@ -9759,37 +9943,37 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-35535</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-9701</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42694</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>114009</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>-114</t>
+          <t>-114009</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -9843,243 +10027,243 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17988</t>
+          <t>17987985</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>15743</t>
+          <t>15743489</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13117</t>
+          <t>13116640</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-5630</t>
+          <t>-5629635</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>323060</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1481960</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>9368339</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>3697</t>
+          <t>3696896</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-545</t>
+          <t>-545453</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103887</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>15629</t>
+          <t>15629079</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>-5919</t>
+          <t>-5918547</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>694394</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>-1606</t>
+          <t>-1605800</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>9843</t>
+          <t>9843031</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2534575</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>1252799</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>10623</t>
+          <t>10623394</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>25577</t>
+          <t>25576994</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>-1893</t>
+          <t>-1893329</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>-7603</t>
+          <t>-7602968</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11941</t>
+          <t>11940975</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>13300</t>
+          <t>13300276</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13262</t>
+          <t>13261533</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>-5465</t>
+          <t>-5464590</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>299226</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>22685</t>
+          <t>22684523</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>3179425</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1270709</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>-4243</t>
+          <t>-4243466</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>20109</t>
+          <t>20109098</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>12489</t>
+          <t>12488765</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>14322</t>
+          <t>14321992</t>
         </is>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
-          <t>6858</t>
+          <t>6858073</t>
         </is>
       </c>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>46429</t>
+          <t>46428667</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5862558</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>-13394</t>
+          <t>-13394006</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>15148</t>
+          <t>15147952</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>75175</t>
+          <t>75175465</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
         <is>
-          <t>32735</t>
+          <t>32734608</t>
         </is>
       </c>
       <c r="AS57" t="inlineStr">
         <is>
-          <t>-11692</t>
+          <t>-11692089</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>-2551</t>
+          <t>-2550514</t>
         </is>
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>88309</t>
+          <t>88308757</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>13959</t>
+          <t>13958611</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>16949</t>
+          <t>16948543</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>23787</t>
+          <t>23786873</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
         <is>
-          <t>151498</t>
+          <t>151497743</t>
         </is>
       </c>
       <c r="AZ57" t="inlineStr">
         <is>
-          <t>10861</t>
+          <t>10861092</t>
         </is>
       </c>
     </row>
